--- a/SALES STATEMENTS/OCTOBER 2025/WEEK12-10-25TO18-10-25.xlsx
+++ b/SALES STATEMENTS/OCTOBER 2025/WEEK12-10-25TO18-10-25.xlsx
@@ -20212,7 +20212,7 @@
   <dimension ref="A1:AT84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="AO61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
@@ -20751,7 +20751,9 @@
       <c r="I7" s="34"/>
       <c r="J7" s="35"/>
       <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="L7" s="28">
+        <v>63150</v>
+      </c>
       <c r="M7" s="26"/>
       <c r="N7" s="22"/>
       <c r="O7" s="23"/>
@@ -20785,11 +20787,11 @@
       <c r="AQ7" s="26"/>
       <c r="AR7" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63150</v>
       </c>
       <c r="AS7" s="19">
         <f t="shared" si="1"/>
-        <v>90600</v>
+        <v>27450</v>
       </c>
       <c r="AT7" s="20">
         <f t="shared" ref="AT7:AT67" si="4">ABS(IF(AND(AR7=0,AS7=0),G7,IF((H7-AR7&lt;0),H7-AR7,0)))</f>
@@ -25581,7 +25583,7 @@
       </c>
       <c r="L68" s="43">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>63150</v>
       </c>
       <c r="M68" s="43">
         <f t="shared" si="12"/>
@@ -25709,11 +25711,11 @@
       </c>
       <c r="AR68" s="43">
         <f>SUM(AR4:AR67)</f>
-        <v>567750</v>
+        <v>630900</v>
       </c>
       <c r="AS68" s="43">
         <f>SUM(AS4:AS67)</f>
-        <v>1962978</v>
+        <v>1899828</v>
       </c>
       <c r="AT68" s="43">
         <f>SUM(AT4:AT67)</f>
@@ -25766,7 +25768,7 @@
       </c>
       <c r="K75" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>63150</v>
       </c>
       <c r="L75" s="6">
         <f t="shared" si="13"/>
@@ -25774,7 +25776,7 @@
       </c>
       <c r="M75" s="7">
         <f>SUM(H75:L75)</f>
-        <v>119660</v>
+        <v>182810</v>
       </c>
     </row>
     <row r="76" spans="1:46" s="52" customFormat="1">
@@ -25969,7 +25971,7 @@
       </c>
       <c r="K82" s="8">
         <f>SUM(K75:K81)</f>
-        <v>0</v>
+        <v>63150</v>
       </c>
       <c r="L82" s="8">
         <f>SUM(L75:L81)</f>
@@ -25977,7 +25979,7 @@
       </c>
       <c r="M82" s="7">
         <f>SUM(H82:L82)</f>
-        <v>567750</v>
+        <v>630900</v>
       </c>
     </row>
     <row r="83" spans="7:13" s="52" customFormat="1"/>
